--- a/todos.xlsx
+++ b/todos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Code/shifts-tip-tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/Documents/Code/ShiftsTipTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="4060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="4060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>System Sequence Diagram</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Taylor</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
 </sst>
 </file>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="C6 B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -377,7 +386,7 @@
     <col min="2" max="2" width="68.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -385,15 +394,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -401,15 +413,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -417,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -425,12 +440,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/todos.xlsx
+++ b/todos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/Documents/Code/ShiftsTipTracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Code/shifts-tip-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>System Sequence Diagram</t>
   </si>
@@ -377,7 +377,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -393,6 +393,9 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -412,6 +415,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -431,6 +437,9 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -438,6 +447,9 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">

--- a/todos.xlsx
+++ b/todos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">

--- a/todos.xlsx
+++ b/todos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>System Sequence Diagram</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Started</t>
-  </si>
-  <si>
-    <t>Todo</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
